--- a/Traduzido/PTBR/Lang/PTBR/Game/HomeResource.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/HomeResource.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A7C777-88F0-4749-889D-E29956CE346A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41599687-D0F2-43ED-BEEE-20E4FFAC6915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F9"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Traduzido/PTBR/Lang/PTBR/Game/HomeResource.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/HomeResource.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41599687-D0F2-43ED-BEEE-20E4FFAC6915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F3732-F8D6-43A7-ABE2-41ED296203AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Local para cultivar e colher os cultivos</t>
+  </si>
+  <si>
+    <t>Carma</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +886,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/HomeResource.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/HomeResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F3732-F8D6-43A7-ABE2-41ED296203AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE582FA5-7B2E-4CAC-8A4D-7EF66A029D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeResource" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -253,16 +253,7 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Local de armazenamento de recursos</t>
-  </si>
-  <si>
     <t>(Indisponível)</t>
-  </si>
-  <si>
-    <t>Espaço onde os moradores vivem</t>
-  </si>
-  <si>
-    <t>Local para cultivar e colher os cultivos</t>
   </si>
   <si>
     <t>Carma</t>
@@ -647,7 +638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,9 +690,6 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
@@ -722,9 +710,6 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
@@ -746,7 +731,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -769,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -791,9 +776,6 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
-        <v>79</v>
-      </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
@@ -815,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -838,7 +820,7 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -886,7 +868,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/HomeResource.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/HomeResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE582FA5-7B2E-4CAC-8A4D-7EF66A029D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F3732-F8D6-43A7-ABE2-41ED296203AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeResource" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -253,7 +253,16 @@
     <t>Valor</t>
   </si>
   <si>
+    <t>Local de armazenamento de recursos</t>
+  </si>
+  <si>
     <t>(Indisponível)</t>
+  </si>
+  <si>
+    <t>Espaço onde os moradores vivem</t>
+  </si>
+  <si>
+    <t>Local para cultivar e colher os cultivos</t>
   </si>
   <si>
     <t>Carma</t>
@@ -638,7 +647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +699,9 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
@@ -710,6 +722,9 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
@@ -731,7 +746,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -754,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -776,6 +791,9 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
@@ -797,7 +815,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -820,7 +838,7 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -868,7 +886,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
